--- a/Paper_resultados/Parametric_model/Survival_rate/Output/Total/Age/Outcome_g1.xlsx
+++ b/Paper_resultados/Parametric_model/Survival_rate/Output/Total/Age/Outcome_g1.xlsx
@@ -387,10 +387,10 @@
         <v>0.9556908975121179</v>
       </c>
       <c r="C2">
-        <v>0.9460794926574133</v>
+        <v>0.9467159249493364</v>
       </c>
       <c r="D2">
-        <v>0.9634424000092278</v>
+        <v>0.9634230801028263</v>
       </c>
     </row>
     <row r="3">
@@ -401,10 +401,10 @@
         <v>0.9170486267905477</v>
       </c>
       <c r="C3">
-        <v>0.899791614234271</v>
+        <v>0.9010723949085274</v>
       </c>
       <c r="D3">
-        <v>0.9309302788367182</v>
+        <v>0.930922589278271</v>
       </c>
     </row>
     <row r="4">
@@ -415,10 +415,10 @@
         <v>0.8832178157577202</v>
       </c>
       <c r="C4">
-        <v>0.8601841768200199</v>
+        <v>0.8617743837261826</v>
       </c>
       <c r="D4">
-        <v>0.9018775251392926</v>
+        <v>0.9021660098948185</v>
       </c>
     </row>
     <row r="5">
@@ -429,10 +429,10 @@
         <v>0.8534948486284901</v>
       </c>
       <c r="C5">
-        <v>0.8259565758519468</v>
+        <v>0.8280555113172309</v>
       </c>
       <c r="D5">
-        <v>0.8761995111201863</v>
+        <v>0.8768806214540861</v>
       </c>
     </row>
     <row r="6">
@@ -443,10 +443,10 @@
         <v>0.8272970253313014</v>
       </c>
       <c r="C6">
-        <v>0.7960933778034119</v>
+        <v>0.7986857967825759</v>
       </c>
       <c r="D6">
-        <v>0.8532028238195311</v>
+        <v>0.8540877782506606</v>
       </c>
     </row>
     <row r="7">
@@ -457,10 +457,10 @@
         <v>0.8041387036245438</v>
       </c>
       <c r="C7">
-        <v>0.7700634129689912</v>
+        <v>0.7729072301579705</v>
       </c>
       <c r="D7">
-        <v>0.8324456298920043</v>
+        <v>0.8334593397229496</v>
       </c>
     </row>
     <row r="8">
@@ -471,10 +471,10 @@
         <v>0.7836126982030409</v>
       </c>
       <c r="C8">
-        <v>0.7474452157326194</v>
+        <v>0.7499555415707542</v>
       </c>
       <c r="D8">
-        <v>0.8134175806253343</v>
+        <v>0.8145821739549657</v>
       </c>
     </row>
     <row r="9">
@@ -485,10 +485,10 @@
         <v>0.7653756702828078</v>
       </c>
       <c r="C9">
-        <v>0.7275385683798007</v>
+        <v>0.7300861805253056</v>
       </c>
       <c r="D9">
-        <v>0.7968631047920968</v>
+        <v>0.7975162488513825</v>
       </c>
     </row>
     <row r="10">
@@ -499,10 +499,10 @@
         <v>0.7491365700729293</v>
       </c>
       <c r="C10">
-        <v>0.71003495899542</v>
+        <v>0.7124612553818958</v>
       </c>
       <c r="D10">
-        <v>0.7819895094156475</v>
+        <v>0.7822123504499183</v>
       </c>
     </row>
     <row r="11">
@@ -513,10 +513,10 @@
         <v>0.7346474322948271</v>
       </c>
       <c r="C11">
-        <v>0.6946096124216325</v>
+        <v>0.6974442412558072</v>
       </c>
       <c r="D11">
-        <v>0.7688856018783419</v>
+        <v>0.7695344664708723</v>
       </c>
     </row>
     <row r="12">
@@ -527,10 +527,10 @@
         <v>0.7216959982532839</v>
       </c>
       <c r="C12">
-        <v>0.6809628472053292</v>
+        <v>0.6836666960791763</v>
       </c>
       <c r="D12">
-        <v>0.7563750310013796</v>
+        <v>0.7578079566845245</v>
       </c>
     </row>
     <row r="13">
@@ -541,10 +541,10 @@
         <v>0.7100997653953545</v>
       </c>
       <c r="C13">
-        <v>0.6683625909275975</v>
+        <v>0.6719133269603114</v>
       </c>
       <c r="D13">
-        <v>0.7454472130783157</v>
+        <v>0.7471380062646644</v>
       </c>
     </row>
     <row r="14">
@@ -555,10 +555,10 @@
         <v>0.6997011597140712</v>
       </c>
       <c r="C14">
-        <v>0.6581562858713401</v>
+        <v>0.6611930416409698</v>
       </c>
       <c r="D14">
-        <v>0.7352742143496096</v>
+        <v>0.7375688464355227</v>
       </c>
     </row>
     <row r="15">
@@ -569,10 +569,10 @@
         <v>0.690363596843629</v>
       </c>
       <c r="C15">
-        <v>0.6481185791020149</v>
+        <v>0.6517088735068035</v>
       </c>
       <c r="D15">
-        <v>0.7262018525130562</v>
+        <v>0.7283894148336741</v>
       </c>
     </row>
     <row r="16">
@@ -583,10 +583,10 @@
         <v>0.681968250696811</v>
       </c>
       <c r="C16">
-        <v>0.6390703618310271</v>
+        <v>0.6430971470711536</v>
       </c>
       <c r="D16">
-        <v>0.7184332699089404</v>
+        <v>0.7197894106815088</v>
       </c>
     </row>
     <row r="17">
@@ -597,10 +597,10 @@
         <v>0.6744113886264571</v>
       </c>
       <c r="C17">
-        <v>0.6311840548526696</v>
+        <v>0.6353267967027401</v>
       </c>
       <c r="D17">
-        <v>0.7110917769321365</v>
+        <v>0.7129042250671698</v>
       </c>
     </row>
     <row r="18">
@@ -611,10 +611,10 @@
         <v>0.6676021626779</v>
       </c>
       <c r="C18">
-        <v>0.6243196783452387</v>
+        <v>0.6287898037223315</v>
       </c>
       <c r="D18">
-        <v>0.70449449705862</v>
+        <v>0.706956707521074</v>
       </c>
     </row>
     <row r="19">
@@ -625,10 +625,10 @@
         <v>0.6614607699564796</v>
       </c>
       <c r="C19">
-        <v>0.6181923286459715</v>
+        <v>0.6226453260041828</v>
       </c>
       <c r="D19">
-        <v>0.6980094671221334</v>
+        <v>0.7015195646640769</v>
       </c>
     </row>
     <row r="20">
@@ -636,13 +636,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.6559169132335139</v>
+        <v>0.655916913233514</v>
       </c>
       <c r="C20">
-        <v>0.6127691611820445</v>
+        <v>0.6161611768505176</v>
       </c>
       <c r="D20">
-        <v>0.692666932560107</v>
+        <v>0.6956655103999354</v>
       </c>
     </row>
     <row r="21">
@@ -653,10 +653,10 @@
         <v>0.6509085069601879</v>
       </c>
       <c r="C21">
-        <v>0.6077926661397874</v>
+        <v>0.6109818967028349</v>
       </c>
       <c r="D21">
-        <v>0.6879666603526661</v>
+        <v>0.6902462582193687</v>
       </c>
     </row>
     <row r="22">
@@ -667,10 +667,10 @@
         <v>0.6463805848199036</v>
       </c>
       <c r="C22">
-        <v>0.6029151215685301</v>
+        <v>0.6063284426610934</v>
       </c>
       <c r="D22">
-        <v>0.6834896325956159</v>
+        <v>0.6860383211551058</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>0.6385765045349796</v>
       </c>
       <c r="C23">
-        <v>0.5943376497813736</v>
+        <v>0.5979747007948456</v>
       </c>
       <c r="D23">
-        <v>0.6764794706467332</v>
+        <v>0.6779859484732571</v>
       </c>
     </row>
     <row r="24">
@@ -695,10 +695,10 @@
         <v>0.6352183400793143</v>
       </c>
       <c r="C24">
-        <v>0.5905816213919611</v>
+        <v>0.5942497247614262</v>
       </c>
       <c r="D24">
-        <v>0.6735339562406161</v>
+        <v>0.6746203347395816</v>
       </c>
     </row>
     <row r="25">
@@ -709,10 +709,10 @@
         <v>0.6321753954793865</v>
       </c>
       <c r="C25">
-        <v>0.5873109968048715</v>
+        <v>0.591139310158724</v>
       </c>
       <c r="D25">
-        <v>0.6706473985158838</v>
+        <v>0.6716157895944079</v>
       </c>
     </row>
     <row r="26">
@@ -723,10 +723,10 @@
         <v>0.6294168415174695</v>
       </c>
       <c r="C26">
-        <v>0.5846776295482761</v>
+        <v>0.588437376174694</v>
       </c>
       <c r="D26">
-        <v>0.6679224192192845</v>
+        <v>0.6689523463241377</v>
       </c>
     </row>
     <row r="27">
@@ -737,10 +737,10 @@
         <v>0.6246453446701989</v>
       </c>
       <c r="C27">
-        <v>0.579359448820893</v>
+        <v>0.5832881056601664</v>
       </c>
       <c r="D27">
-        <v>0.6631631825812151</v>
+        <v>0.6643503306523221</v>
       </c>
     </row>
     <row r="28">
@@ -751,10 +751,10 @@
         <v>0.622585430505704</v>
       </c>
       <c r="C28">
-        <v>0.5772695777916094</v>
+        <v>0.5809138161902065</v>
       </c>
       <c r="D28">
-        <v>0.6613044699649308</v>
+        <v>0.6623251535486798</v>
       </c>
     </row>
     <row r="29">
@@ -762,13 +762,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.6207153580821929</v>
+        <v>0.620715358082193</v>
       </c>
       <c r="C29">
-        <v>0.5747412811492889</v>
+        <v>0.5786878947844895</v>
       </c>
       <c r="D29">
-        <v>0.6596759051783793</v>
+        <v>0.6607209799551258</v>
       </c>
     </row>
     <row r="30">
@@ -779,10 +779,10 @@
         <v>0.6190171531128814</v>
       </c>
       <c r="C30">
-        <v>0.5726504150874796</v>
+        <v>0.5766628893854987</v>
       </c>
       <c r="D30">
-        <v>0.6580606119533781</v>
+        <v>0.6594255728190823</v>
       </c>
     </row>
     <row r="31">
@@ -793,10 +793,10 @@
         <v>0.6147996267129401</v>
       </c>
       <c r="C31">
-        <v>0.5669595276848459</v>
+        <v>0.5715746908032616</v>
       </c>
       <c r="D31">
-        <v>0.6536691113835574</v>
+        <v>0.6562175181442607</v>
       </c>
     </row>
     <row r="32">
@@ -807,10 +807,10 @@
         <v>0.6136420862227652</v>
       </c>
       <c r="C32">
-        <v>0.5659615097918798</v>
+        <v>0.5701671103672132</v>
       </c>
       <c r="D32">
-        <v>0.6524266811526908</v>
+        <v>0.6552016142221485</v>
       </c>
     </row>
     <row r="33">
@@ -821,10 +821,10 @@
         <v>0.6116330420308128</v>
       </c>
       <c r="C33">
-        <v>0.5642508075331543</v>
+        <v>0.5682538588507728</v>
       </c>
       <c r="D33">
-        <v>0.6506672405996624</v>
+        <v>0.6528742385214078</v>
       </c>
     </row>
     <row r="34">
@@ -832,13 +832,13 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0.610763014162364</v>
+        <v>0.6107630141623641</v>
       </c>
       <c r="C34">
-        <v>0.5634219647577254</v>
+        <v>0.5672420376869004</v>
       </c>
       <c r="D34">
-        <v>0.6498281376512395</v>
+        <v>0.6520640631895687</v>
       </c>
     </row>
     <row r="35">
@@ -849,10 +849,10 @@
         <v>0.6099717483669413</v>
       </c>
       <c r="C35">
-        <v>0.5625333699967618</v>
+        <v>0.5664299902701584</v>
       </c>
       <c r="D35">
-        <v>0.6490638959165789</v>
+        <v>0.6514886357990374</v>
       </c>
     </row>
     <row r="36">
@@ -863,10 +863,10 @@
         <v>0.6057377110775974</v>
       </c>
       <c r="C36">
-        <v>0.5577690476766163</v>
+        <v>0.5630377363742297</v>
       </c>
       <c r="D36">
-        <v>0.6451242443419191</v>
+        <v>0.6475791046713434</v>
       </c>
     </row>
     <row r="37">
@@ -877,10 +877,10 @@
         <v>0.6048111616812863</v>
       </c>
       <c r="C37">
-        <v>0.5564087409031048</v>
+        <v>0.5618616123647372</v>
       </c>
       <c r="D37">
-        <v>0.6443128659637229</v>
+        <v>0.6463995858923486</v>
       </c>
     </row>
     <row r="38">
@@ -891,10 +891,10 @@
         <v>0.6039197256792784</v>
       </c>
       <c r="C38">
-        <v>0.5544898364401516</v>
+        <v>0.5608907860445151</v>
       </c>
       <c r="D38">
-        <v>0.643444837833087</v>
+        <v>0.6452604981626902</v>
       </c>
     </row>
     <row r="39">
@@ -905,10 +905,10 @@
         <v>0.6020271274930908</v>
       </c>
       <c r="C39">
-        <v>0.5525218187298317</v>
+        <v>0.5583736327625133</v>
       </c>
       <c r="D39">
-        <v>0.641463050230798</v>
+        <v>0.643940655808804</v>
       </c>
     </row>
   </sheetData>
